--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>cpu</t>
   </si>
@@ -38,10 +38,34 @@
     <t>thrust</t>
   </si>
   <si>
-    <t>pow2</t>
+    <t>Scan</t>
   </si>
   <si>
-    <t>notpow2</t>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>cpu with scan</t>
+  </si>
+  <si>
+    <t>radix k = 6</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>cpu 2</t>
+  </si>
+  <si>
+    <t>gpu 2</t>
+  </si>
+  <si>
+    <t>efficent 2</t>
+  </si>
+  <si>
+    <t>naïve 2</t>
+  </si>
+  <si>
+    <t>thrust 2</t>
   </si>
 </sst>
 </file>
@@ -77,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +156,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Power-of-two</a:t>
+              <a:t>Scan for SIZE &lt; 20K</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu</c:v>
+                  <c:v>cpu 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -200,52 +225,40 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.7700000000000001E-4</c:v>
                 </c:pt>
@@ -253,31 +266,19 @@
                   <c:v>2.7700000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7799999999999998E-4</c:v>
+                  <c:v>5.5500000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7700000000000001E-4</c:v>
+                  <c:v>1.665E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7799999999999998E-4</c:v>
+                  <c:v>4.1609999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5500000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3199999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3199999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.109E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1900000000000001E-3</c:v>
+                  <c:v>1.4425E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,7 +294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naïve</c:v>
+                  <c:v>cpu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -312,84 +313,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.2240000000000004E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5040000000000003E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1328E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1552E-2</c:v>
+                  <c:v>2.7799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>8.3199999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5299999999999999E-2</c:v>
+                  <c:v>3.607E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7408E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9456000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1503999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3584000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0720000000000001E-2</c:v>
+                  <c:v>1.0264000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,7 +382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficent</c:v>
+                  <c:v>naïve 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -424,84 +401,414 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.4719999999999995E-3</c:v>
+                  <c:v>8.0319999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>1.1776E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9199999999999998E-2</c:v>
+                  <c:v>1.5904000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9456000000000001E-2</c:v>
+                  <c:v>2.0160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3552E-2</c:v>
+                  <c:v>2.3935999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9696E-2</c:v>
+                  <c:v>3.2447999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4784000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8912000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8959999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4368E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0415999999999997E-2</c:v>
+                  <c:v>3.9392000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.504E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0192000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2592000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1551999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7983999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0368E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7568E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5728000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3984E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0368000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9808E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1199999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.3039999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7568E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4687999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0528000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9360000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0047999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3504E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3535999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3535999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3728000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3344E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8815999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6864000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,27 +824,27 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="598021440"/>
-        <c:axId val="598022224"/>
+        <c:axId val="623520072"/>
+        <c:axId val="623520856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
+                <c:idx val="6"/>
+                <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                          <c15:sqref>Sheet1!$H$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>thrust</c:v>
+                        <c:v>thrust 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -545,7 +852,9 @@
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent4"/>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -559,45 +868,33 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$13</c15:sqref>
+                          <c15:sqref>Sheet1!$A$3:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>7</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>12</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -607,45 +904,33 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$3:$E$13</c15:sqref>
+                          <c15:sqref>Sheet1!$H$3:$H$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>10.844200000000001</c:v>
+                        <c:v>9.7850199999999994</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>11.7012</c:v>
+                        <c:v>10.192399999999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>14.249000000000001</c:v>
+                        <c:v>9.9549400000000006</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10.2799</c:v>
+                        <c:v>10.629300000000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>12.1897</c:v>
+                        <c:v>11.0641</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>11.006</c:v>
+                        <c:v>11.166399999999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>10.4001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10.817500000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>11.2302</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>11.097200000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>12.375</c:v>
+                        <c:v>10.052300000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -657,12 +942,79 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598021440"/>
+        <c:axId val="623520072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -700,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598022224"/>
+        <c:crossAx val="623520856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,26 +1060,68 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598022224"/>
+        <c:axId val="623520856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -759,13 +1153,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598021440"/>
+        <c:crossAx val="623520072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -875,7 +1269,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Non-power-of-two</a:t>
+              <a:t>Scan for SIZE &gt; 4M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -921,11 +1315,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu</c:v>
+                  <c:v>cpu 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -944,84 +1338,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$13</c:f>
+              <c:f>Sheet1!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.324000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>70.233699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7700000000000001E-4</c:v>
+                  <c:v>104.014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7700000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5500000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6639999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3199999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.387E-3</c:v>
+                  <c:v>205.11099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,11 +1385,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naïve</c:v>
+                  <c:v>cpu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1056,84 +1408,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:f>Sheet1!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1440000000000002E-3</c:v>
+                  <c:v>3.0619100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2160000000000002E-3</c:v>
+                  <c:v>12.466200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1264E-2</c:v>
+                  <c:v>49.830800000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1264E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3504E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6383999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6383999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8720000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2527999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2592000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9696E-2</c:v>
+                  <c:v>192.05600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,11 +1455,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficent</c:v>
+                  <c:v>naïve 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1168,84 +1478,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$13</c:f>
+              <c:f>Sheet1!$D$13:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1440000000000002E-3</c:v>
+                  <c:v>4.0711700000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>18.172599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8432E-2</c:v>
+                  <c:v>80.293599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0128E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2079999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7647999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4368000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9935999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5904000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5295999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0415999999999997E-2</c:v>
+                  <c:v>348.62299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,11 +1525,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>thrust</c:v>
+                  <c:v>naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1280,84 +1548,326 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:f>Sheet1!$E$13:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>4.3089599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>18.1541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4336E-2</c:v>
+                  <c:v>80.815299999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4656000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4656000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4368000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3535999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4336E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.536E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4336E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6383999999999999E-2</c:v>
+                  <c:v>348.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8163800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4788500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.783799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.82666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.32416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.329699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.729100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.941000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.265799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49769600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.40848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7200600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.156600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,16 +1883,83 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="602068000"/>
-        <c:axId val="602068784"/>
+        <c:axId val="630300928"/>
+        <c:axId val="630299752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="602068000"/>
+        <c:axId val="630300928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1420,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602068784"/>
+        <c:crossAx val="630299752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1428,26 +2005,68 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="602068784"/>
+        <c:axId val="630299752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1479,9 +2098,3063 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602068000"/>
+        <c:crossAx val="630300928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for SIZE &lt; 20K </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0263E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5229000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.496E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7079999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4384E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu with scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9940000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7407999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15427199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20572799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.195936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24518400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12700800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19123200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20227200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22195200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.199296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="630289168"/>
+        <c:axId val="630291520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630289168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630291520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630291520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630289168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for SIZE &gt; 4M</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$13:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.3455200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.745699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.41900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>583.61500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu with scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$13:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.098500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.138900000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1184.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$13:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.227699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.6218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.21100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="630310728"/>
+        <c:axId val="630313080"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cpu</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$13:$L$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>9.5186100000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>37.763199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>149.411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>587.64099999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efficent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$13:$O$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>11.333399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40.183999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>46.637</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>178.21799999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630310728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630313080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630313080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630310728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Radix Sort for SIZE &lt; 20K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.3199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.665E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2119999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1019999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5784000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7088999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37698300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.387E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.548E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2192E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15534200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38031199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.16662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94051200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0564499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3490200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5823700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.88154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99273599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0811500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3781399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5403800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6062099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="630304064"/>
+        <c:axId val="630297400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630304064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630297400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630297400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630304064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Radix Sort for SIZE &gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4M</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$13:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>105.074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390.608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1563.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6086.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$13:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.801600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.577799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1293.5999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="630304456"/>
+        <c:axId val="630307200"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cpu</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$13:$R$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>97.6006</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>390.61200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1564.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6094.28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>gpu</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$13:$T$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>21.696300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.0672</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>327.005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1303.92</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630304456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(SIZE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630307200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630307200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630304456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1640,6 +5313,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2157,6 +5990,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2677,19 +8574,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2707,19 +8604,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2729,6 +8626,130 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3000,49 +9021,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>3</v>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3050,363 +9115,790 @@
         <v>2.7700000000000001E-4</v>
       </c>
       <c r="C3">
-        <v>8.2240000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.4719999999999995E-3</v>
+        <v>8.0319999999999992E-3</v>
       </c>
       <c r="E3">
-        <v>10.844200000000001</v>
+        <v>5.3759999999999997E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.0368E-2</v>
       </c>
       <c r="G3">
-        <f>A3</f>
-        <v>2</v>
+        <v>6.3039999999999997E-3</v>
       </c>
       <c r="H3">
+        <v>9.7850199999999994</v>
+      </c>
+      <c r="I3">
+        <v>1.3504E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>6.1440000000000002E-3</v>
-      </c>
-      <c r="J3">
-        <v>6.1440000000000002E-3</v>
-      </c>
-      <c r="K3">
-        <v>1.4336E-2</v>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.15846399999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.12700800000000001</v>
+      </c>
+      <c r="Q3">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="R3">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="S3">
+        <v>1.16662</v>
+      </c>
+      <c r="T3">
+        <v>0.99273599999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.7700000000000001E-4</v>
       </c>
       <c r="C4">
-        <v>9.5040000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.4336E-2</v>
+        <v>1.1776E-2</v>
       </c>
       <c r="E4">
-        <v>11.7012</v>
+        <v>1.0784E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.7568E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="0">A4</f>
-        <v>3</v>
+        <v>1.7568E-2</v>
       </c>
       <c r="H4">
+        <v>10.192399999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.3535999999999999E-2</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>9.2160000000000002E-3</v>
-      </c>
-      <c r="J4">
-        <v>1.4336E-2</v>
-      </c>
-      <c r="K4">
-        <v>1.4336E-2</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="N4">
+        <v>0.135296</v>
+      </c>
+      <c r="O4">
+        <v>0.1328</v>
+      </c>
+      <c r="Q4">
+        <v>1.665E-3</v>
+      </c>
+      <c r="R4">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="S4">
+        <v>0.94051200000000001</v>
+      </c>
+      <c r="T4">
+        <v>1.0811500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>1.1328E-2</v>
-      </c>
       <c r="D5">
-        <v>1.9199999999999998E-2</v>
+        <v>1.5904000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>14.249000000000001</v>
+        <v>1.504E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.5728000000000001E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.6112E-2</v>
       </c>
       <c r="H5">
-        <v>2.7700000000000001E-4</v>
+        <v>9.9549400000000006</v>
       </c>
       <c r="I5">
-        <v>1.1264E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.8432E-2</v>
+        <v>1.3535999999999999E-2</v>
       </c>
       <c r="K5">
-        <v>1.4336E-2</v>
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="L5">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="M5">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="N5">
+        <v>0.15427199999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.19123200000000001</v>
+      </c>
+      <c r="Q5">
+        <v>7.2119999999999997E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.387E-3</v>
+      </c>
+      <c r="S5">
+        <v>1.0564499999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.3781399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="C6">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="C6">
-        <v>1.1552E-2</v>
-      </c>
       <c r="D6">
-        <v>1.9456000000000001E-2</v>
+        <v>2.0160000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>10.2799</v>
+        <v>2.0192000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.3984E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.4687999999999997E-2</v>
       </c>
       <c r="H6">
-        <v>2.7700000000000001E-4</v>
+        <v>10.629300000000001</v>
       </c>
       <c r="I6">
-        <v>1.1264E-2</v>
-      </c>
-      <c r="J6">
-        <v>2.0128E-2</v>
+        <v>1.3728000000000001E-2</v>
       </c>
       <c r="K6">
-        <v>1.4656000000000001E-2</v>
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="L6">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="M6">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="N6">
+        <v>0.185728</v>
+      </c>
+      <c r="O6">
+        <v>0.20227200000000001</v>
+      </c>
+      <c r="Q6">
+        <v>6.1019999999999998E-3</v>
+      </c>
+      <c r="R6">
+        <v>5.548E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.28349</v>
+      </c>
+      <c r="T6">
+        <v>1.47699</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2.7700000000000001E-4</v>
+        <v>1.665E-3</v>
       </c>
       <c r="C7">
-        <v>1.4336E-2</v>
+        <v>8.3199999999999995E-4</v>
       </c>
       <c r="D7">
-        <v>2.3552E-2</v>
+        <v>2.3935999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>12.1897</v>
+        <v>2.2592000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.0368000000000003E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5.0528000000000003E-2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.0641</v>
       </c>
       <c r="I7">
-        <v>1.3504E-2</v>
-      </c>
-      <c r="J7">
-        <v>2.2079999999999999E-2</v>
+        <v>1.3344E-2</v>
       </c>
       <c r="K7">
-        <v>1.4656000000000001E-2</v>
+        <v>2.4970000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.496E-3</v>
+      </c>
+      <c r="M7">
+        <v>4.9940000000000002E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.20572799999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.22195200000000001</v>
+      </c>
+      <c r="Q7">
+        <v>3.5784000000000003E-2</v>
+      </c>
+      <c r="R7">
+        <v>2.2192E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.3490200000000001</v>
+      </c>
+      <c r="T7">
+        <v>1.5403800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2.7799999999999998E-4</v>
+        <v>4.1609999999999998E-3</v>
       </c>
       <c r="C8">
-        <v>1.5299999999999999E-2</v>
+        <v>3.607E-3</v>
       </c>
       <c r="D8">
-        <v>2.9696E-2</v>
+        <v>3.2447999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>11.006</v>
+        <v>3.1551999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.9808E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5.9360000000000003E-2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.166399999999999</v>
       </c>
       <c r="I8">
-        <v>1.6383999999999999E-2</v>
-      </c>
-      <c r="J8">
-        <v>2.7647999999999999E-2</v>
+        <v>1.8815999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>1.4368000000000001E-2</v>
+        <v>1.0263E-2</v>
+      </c>
+      <c r="L8">
+        <v>9.7079999999999996E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.8585000000000001E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.195936</v>
+      </c>
+      <c r="O8">
+        <v>0.199296</v>
+      </c>
+      <c r="Q8">
+        <v>9.7088999999999995E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.15534200000000001</v>
+      </c>
+      <c r="S8">
+        <v>1.5823700000000001</v>
+      </c>
+      <c r="T8">
+        <v>1.6062099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>5.5500000000000005E-4</v>
+        <v>1.4425E-2</v>
       </c>
       <c r="C9">
-        <v>1.7408E-2</v>
+        <v>1.0264000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>3.4784000000000002E-2</v>
+        <v>3.9392000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>10.4001</v>
+        <v>3.7983999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.0047999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.052300000000001</v>
       </c>
       <c r="I9">
-        <v>1.6383999999999999E-2</v>
-      </c>
-      <c r="J9">
-        <v>3.4368000000000003E-2</v>
+        <v>3.6864000000000001E-2</v>
       </c>
       <c r="K9">
-        <v>1.3535999999999999E-2</v>
+        <v>3.5229000000000003E-2</v>
+      </c>
+      <c r="L9">
+        <v>4.4384E-2</v>
+      </c>
+      <c r="M9">
+        <v>6.7407999999999996E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.24518400000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.29984</v>
+      </c>
+      <c r="Q9">
+        <v>0.37698300000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.38031199999999998</v>
+      </c>
+      <c r="S9">
+        <v>1.88154</v>
+      </c>
+      <c r="T9">
+        <v>1.74013</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>8.3199999999999995E-4</v>
+        <v>5.5202000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>1.9456000000000001E-2</v>
+        <v>3.7448000000000002E-2</v>
       </c>
       <c r="D10">
-        <v>3.8912000000000002E-2</v>
+        <v>5.3631999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>10.817500000000001</v>
+        <v>5.3280000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.7424000000000002E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.7583999999999995E-2</v>
       </c>
       <c r="H10">
-        <v>5.5500000000000005E-4</v>
+        <v>11.1028</v>
       </c>
       <c r="I10">
-        <v>1.8720000000000001E-2</v>
-      </c>
-      <c r="J10">
-        <v>3.9935999999999999E-2</v>
+        <v>0.16012799999999999</v>
       </c>
       <c r="K10">
-        <v>1.4336E-2</v>
+        <v>0.14091799999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.14729800000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.20582900000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.28390399999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.40195199999999998</v>
+      </c>
+      <c r="Q10">
+        <v>1.50654</v>
+      </c>
+      <c r="R10">
+        <v>1.55287</v>
+      </c>
+      <c r="S10">
+        <v>1.5358700000000001</v>
+      </c>
+      <c r="T10">
+        <v>1.5873900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>8.3199999999999995E-4</v>
+        <v>1.1109800000000001</v>
       </c>
       <c r="C11">
-        <v>2.1503999999999999E-2</v>
+        <v>0.15839400000000001</v>
       </c>
       <c r="D11">
-        <v>4.8959999999999997E-2</v>
+        <v>0.137632</v>
       </c>
       <c r="E11">
-        <v>11.2302</v>
+        <v>0.1336</v>
+      </c>
+      <c r="F11">
+        <v>0.12729599999999999</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.12707199999999999</v>
       </c>
       <c r="H11">
-        <v>1.6639999999999999E-3</v>
+        <v>10.982900000000001</v>
       </c>
       <c r="I11">
-        <v>2.2527999999999999E-2</v>
-      </c>
-      <c r="J11">
-        <v>5.5904000000000002E-2</v>
+        <v>0.173536</v>
       </c>
       <c r="K11">
-        <v>1.536E-2</v>
+        <v>0.88545300000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.58974599999999999</v>
+      </c>
+      <c r="M11">
+        <v>1.0449600000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.29583999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.313888</v>
+      </c>
+      <c r="Q11">
+        <v>7.45838</v>
+      </c>
+      <c r="R11">
+        <v>6.3157800000000002</v>
+      </c>
+      <c r="S11">
+        <v>2.73664</v>
+      </c>
+      <c r="T11">
+        <v>2.2579199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>1.109E-3</v>
+        <v>4.4763599999999997</v>
       </c>
       <c r="C12">
-        <v>2.3584000000000001E-2</v>
+        <v>0.76312000000000002</v>
       </c>
       <c r="D12">
-        <v>5.4368E-2</v>
+        <v>0.92899200000000004</v>
       </c>
       <c r="E12">
-        <v>11.097200000000001</v>
+        <v>0.92614399999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.48550399999999999</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0.49603199999999997</v>
       </c>
       <c r="H12">
-        <v>8.3199999999999995E-4</v>
+        <v>10.702199999999999</v>
       </c>
       <c r="I12">
-        <v>2.2592000000000001E-2</v>
-      </c>
-      <c r="J12">
-        <v>5.5295999999999998E-2</v>
+        <v>0.23321600000000001</v>
       </c>
       <c r="K12">
-        <v>1.4336E-2</v>
+        <v>2.37757</v>
+      </c>
+      <c r="L12">
+        <v>2.2896399999999999</v>
+      </c>
+      <c r="M12">
+        <v>4.4133899999999997</v>
+      </c>
+      <c r="N12">
+        <v>2.9524499999999998</v>
+      </c>
+      <c r="O12">
+        <v>1.2390699999999999</v>
+      </c>
+      <c r="Q12">
+        <v>24.822299999999998</v>
+      </c>
+      <c r="R12">
+        <v>33.744300000000003</v>
+      </c>
+      <c r="S12">
+        <v>6.4777300000000002</v>
+      </c>
+      <c r="T12">
+        <v>6.2351000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>2.1900000000000001E-3</v>
+        <v>18.324000000000002</v>
       </c>
       <c r="C13">
-        <v>3.0720000000000001E-2</v>
+        <v>3.0619100000000001</v>
       </c>
       <c r="D13">
-        <v>6.0415999999999997E-2</v>
+        <v>4.0711700000000004</v>
       </c>
       <c r="E13">
-        <v>12.375</v>
+        <v>4.3089599999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.8163800000000001</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1.82666</v>
       </c>
       <c r="H13">
-        <v>1.387E-3</v>
+        <v>12.729100000000001</v>
       </c>
       <c r="I13">
-        <v>2.9696E-2</v>
-      </c>
-      <c r="J13">
-        <v>6.0415999999999997E-2</v>
+        <v>0.49769600000000003</v>
       </c>
       <c r="K13">
-        <v>1.6383999999999999E-2</v>
+        <v>9.3455200000000005</v>
+      </c>
+      <c r="L13">
+        <v>9.5186100000000007</v>
+      </c>
+      <c r="M13">
+        <v>18.098500000000001</v>
+      </c>
+      <c r="N13">
+        <v>11.5154</v>
+      </c>
+      <c r="O13">
+        <v>11.333399999999999</v>
+      </c>
+      <c r="Q13">
+        <v>105.074</v>
+      </c>
+      <c r="R13">
+        <v>97.6006</v>
+      </c>
+      <c r="S13">
+        <v>21.801600000000001</v>
+      </c>
+      <c r="T13">
+        <v>21.696300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>70.233699999999999</v>
+      </c>
+      <c r="C14">
+        <v>12.466200000000001</v>
+      </c>
+      <c r="D14">
+        <v>18.172599999999999</v>
+      </c>
+      <c r="E14">
+        <v>18.1541</v>
+      </c>
+      <c r="F14">
+        <v>7.4788500000000004</v>
+      </c>
+      <c r="G14">
+        <v>7.32416</v>
+      </c>
+      <c r="H14">
+        <v>10.941000000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.40848</v>
+      </c>
+      <c r="K14">
+        <v>36.745699999999999</v>
+      </c>
+      <c r="L14">
+        <v>37.763199999999998</v>
+      </c>
+      <c r="M14">
+        <v>75.138900000000007</v>
+      </c>
+      <c r="N14">
+        <v>40.227699999999999</v>
+      </c>
+      <c r="O14">
+        <v>40.183999999999997</v>
+      </c>
+      <c r="Q14">
+        <v>390.608</v>
+      </c>
+      <c r="R14">
+        <v>390.61200000000002</v>
+      </c>
+      <c r="S14">
+        <v>82.577799999999996</v>
+      </c>
+      <c r="T14">
+        <v>82.0672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>104.014</v>
+      </c>
+      <c r="C15">
+        <v>49.830800000000004</v>
+      </c>
+      <c r="D15">
+        <v>80.293599999999998</v>
+      </c>
+      <c r="E15">
+        <v>80.815299999999993</v>
+      </c>
+      <c r="F15">
+        <v>29.783799999999999</v>
+      </c>
+      <c r="G15">
+        <v>29.329699999999999</v>
+      </c>
+      <c r="H15">
+        <v>14.2599</v>
+      </c>
+      <c r="I15">
+        <v>4.7200600000000001</v>
+      </c>
+      <c r="K15">
+        <v>144.41900000000001</v>
+      </c>
+      <c r="L15">
+        <v>149.411</v>
+      </c>
+      <c r="M15">
+        <v>293.08199999999999</v>
+      </c>
+      <c r="N15">
+        <v>46.6218</v>
+      </c>
+      <c r="O15">
+        <v>46.637</v>
+      </c>
+      <c r="Q15">
+        <v>1563.1</v>
+      </c>
+      <c r="R15">
+        <v>1564.48</v>
+      </c>
+      <c r="S15">
+        <v>329.06200000000001</v>
+      </c>
+      <c r="T15">
+        <v>327.005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>205.11099999999999</v>
+      </c>
+      <c r="C16">
+        <v>192.05600000000001</v>
+      </c>
+      <c r="D16">
+        <v>348.62299999999999</v>
+      </c>
+      <c r="E16">
+        <v>348.62</v>
+      </c>
+      <c r="F16">
+        <v>119.277</v>
+      </c>
+      <c r="G16">
+        <v>119.333</v>
+      </c>
+      <c r="H16">
+        <v>28.265799999999999</v>
+      </c>
+      <c r="I16">
+        <v>18.156600000000001</v>
+      </c>
+      <c r="K16">
+        <v>583.61500000000001</v>
+      </c>
+      <c r="L16">
+        <v>587.64099999999996</v>
+      </c>
+      <c r="M16">
+        <v>1184.48</v>
+      </c>
+      <c r="N16">
+        <v>178.21100000000001</v>
+      </c>
+      <c r="O16">
+        <v>178.21799999999999</v>
+      </c>
+      <c r="Q16">
+        <v>6086.65</v>
+      </c>
+      <c r="R16">
+        <v>6094.28</v>
+      </c>
+      <c r="S16">
+        <v>1293.5999999999999</v>
+      </c>
+      <c r="T16">
+        <v>1303.92</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>cpu</t>
   </si>
@@ -1206,12 +1206,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2032,7 +2027,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Milliseconds</a:t>
+                  <a:t>Milliseconds (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2151,12 +2146,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2982,12 +2972,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3162,6 +3147,76 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$13:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5186100000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.763199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.64099999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -3301,6 +3356,76 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$13:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.333399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.21799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3312,190 +3437,6 @@
         <c:smooth val="0"/>
         <c:axId val="630310728"/>
         <c:axId val="630313080"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>cpu</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>28</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$13:$L$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>9.5186100000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>37.763199999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>149.411</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>587.64099999999996</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>efficent</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>28</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$13:$O$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>11.333399999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>40.183999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>46.637</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>178.21799999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="630310728"/>
@@ -3643,7 +3584,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Milliseconds</a:t>
+                  <a:t>Milliseconds (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3762,12 +3703,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4376,7 +4312,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Milliseconds</a:t>
+                  <a:t>Milliseconds (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4495,12 +4431,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4609,7 +4540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>Sheet1!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4653,21 +4584,91 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$13:$Q$16</c:f>
+              <c:f>Sheet1!$V$13:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>105.074</c:v>
+                  <c:v>0.105074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390.608</c:v>
+                  <c:v>0.39060800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1563.1</c:v>
+                  <c:v>1.5630999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6086.65</c:v>
+                  <c:v>6.0866499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$13:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7600599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39061200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5644800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0942799999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,7 +4680,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$2</c:f>
+              <c:f>Sheet1!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4723,21 +4724,91 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$13:$S$16</c:f>
+              <c:f>Sheet1!$X$13:$X$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.801600000000001</c:v>
+                  <c:v>2.1801600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.577799999999996</c:v>
+                  <c:v>8.2577799999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>329.06200000000001</c:v>
+                  <c:v>0.32906200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1293.5999999999999</c:v>
+                  <c:v>1.2935999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$13:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1696300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2067199999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32700499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.30392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4755,190 +4826,6 @@
         <c:smooth val="0"/>
         <c:axId val="630304456"/>
         <c:axId val="630307200"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>cpu</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>28</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$13:$R$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>97.6006</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>390.61200000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1564.48</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6094.28</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>gpu</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>28</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$13:$T$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>21.696300000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>82.0672</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>327.005</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1303.92</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="630304456"/>
@@ -5086,7 +4973,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Milliseconds</a:t>
+                  <a:t>Seconds (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5205,12 +5092,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8664,15 +8546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8695,16 +8577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8725,16 +8607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9021,15 +8903,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9054,7 +8939,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -9106,8 +8991,20 @@
       <c r="T2" t="s">
         <v>8</v>
       </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9162,8 +9059,24 @@
       <c r="T3">
         <v>0.99273599999999995</v>
       </c>
+      <c r="V3">
+        <f>Q3/1000</f>
+        <v>8.3199999999999993E-7</v>
+      </c>
+      <c r="W3">
+        <f>R3/1000</f>
+        <v>2.7799999999999997E-7</v>
+      </c>
+      <c r="X3">
+        <f>S3/1000</f>
+        <v>1.1666199999999999E-3</v>
+      </c>
+      <c r="Y3">
+        <f>T3/1000</f>
+        <v>9.9273599999999992E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9218,8 +9131,24 @@
       <c r="T4">
         <v>1.0811500000000001</v>
       </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V16" si="0">Q4/1000</f>
+        <v>1.6649999999999999E-6</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W16" si="1">R4/1000</f>
+        <v>5.5500000000000009E-7</v>
+      </c>
+      <c r="X4">
+        <f>S4/1000</f>
+        <v>9.4051200000000001E-4</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y16" si="2">T4/1000</f>
+        <v>1.0811500000000001E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9274,8 +9203,24 @@
       <c r="T5">
         <v>1.3781399999999999</v>
       </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>7.2119999999999997E-6</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>1.387E-6</v>
+      </c>
+      <c r="X5">
+        <f>S5/1000</f>
+        <v>1.0564499999999998E-3</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>1.3781399999999999E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9330,8 +9275,24 @@
       <c r="T6">
         <v>1.47699</v>
       </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>6.1020000000000002E-6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>5.5480000000000001E-6</v>
+      </c>
+      <c r="X6">
+        <f>S6/1000</f>
+        <v>1.28349E-3</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>1.4769900000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9386,8 +9347,24 @@
       <c r="T7">
         <v>1.5403800000000001</v>
       </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>3.5784000000000002E-5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>2.2192E-5</v>
+      </c>
+      <c r="X7">
+        <f>S7/1000</f>
+        <v>1.34902E-3</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>1.54038E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9442,8 +9419,24 @@
       <c r="T8">
         <v>1.6062099999999999</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>9.7088999999999991E-5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1.5534200000000002E-4</v>
+      </c>
+      <c r="X8">
+        <f>S8/1000</f>
+        <v>1.58237E-3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>1.6062099999999998E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9498,8 +9491,24 @@
       <c r="T9">
         <v>1.74013</v>
       </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>3.7698300000000001E-4</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>3.80312E-4</v>
+      </c>
+      <c r="X9">
+        <f>S9/1000</f>
+        <v>1.8815399999999999E-3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>1.7401299999999999E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -9554,8 +9563,24 @@
       <c r="T10">
         <v>1.5873900000000001</v>
       </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1.50654E-3</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>1.55287E-3</v>
+      </c>
+      <c r="X10">
+        <f>S10/1000</f>
+        <v>1.5358700000000002E-3</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>1.5873900000000002E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9610,8 +9635,24 @@
       <c r="T11">
         <v>2.2579199999999999</v>
       </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>7.4583799999999997E-3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>6.31578E-3</v>
+      </c>
+      <c r="X11">
+        <f>S11/1000</f>
+        <v>2.7366399999999998E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>2.2579200000000001E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -9666,8 +9707,24 @@
       <c r="T12">
         <v>6.2351000000000001</v>
       </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>2.4822299999999999E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>3.3744300000000005E-2</v>
+      </c>
+      <c r="X12">
+        <f>S12/1000</f>
+        <v>6.4777300000000001E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>6.2351000000000004E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -9722,8 +9779,24 @@
       <c r="T13">
         <v>21.696300000000001</v>
       </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.105074</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>9.7600599999999996E-2</v>
+      </c>
+      <c r="X13">
+        <f>S13/1000</f>
+        <v>2.1801600000000001E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>2.1696300000000002E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -9778,8 +9851,24 @@
       <c r="T14">
         <v>82.0672</v>
       </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.39060800000000001</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>0.39061200000000001</v>
+      </c>
+      <c r="X14">
+        <f>S14/1000</f>
+        <v>8.2577799999999993E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>8.2067199999999993E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -9834,8 +9923,24 @@
       <c r="T15">
         <v>327.005</v>
       </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>1.5630999999999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>1.5644800000000001</v>
+      </c>
+      <c r="X15">
+        <f>S15/1000</f>
+        <v>0.32906200000000002</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>0.32700499999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>28</v>
       </c>
@@ -9889,6 +9994,22 @@
       </c>
       <c r="T16">
         <v>1303.92</v>
+      </c>
+      <c r="V16">
+        <f>Q16/1000</f>
+        <v>6.0866499999999997</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>6.0942799999999995</v>
+      </c>
+      <c r="X16">
+        <f>S16/1000</f>
+        <v>1.2935999999999999</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>1.30392</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8903,10 +8903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,7 +8914,7 @@
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9075,8 +9075,41 @@
         <f>T3/1000</f>
         <v>9.9273599999999992E-4</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1.7696E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.7663999999999999E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AF3">
+        <v>1.7856E-2</v>
+      </c>
+      <c r="AG3">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="AH3">
+        <v>1.7728000000000001E-2</v>
+      </c>
+      <c r="AI3">
+        <v>1.7824E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.7824E-2</v>
+      </c>
+      <c r="AK3">
+        <v>1.7791999999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9147,8 +9180,14 @@
         <f t="shared" ref="Y4:Y16" si="2">T4/1000</f>
         <v>1.0811500000000001E-3</v>
       </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1.7919999999999998E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9219,8 +9258,14 @@
         <f t="shared" si="2"/>
         <v>1.3781399999999999E-3</v>
       </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>1.7856E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9291,8 +9336,14 @@
         <f t="shared" si="2"/>
         <v>1.4769900000000001E-3</v>
       </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>1.7728000000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9363,8 +9414,14 @@
         <f t="shared" si="2"/>
         <v>1.54038E-3</v>
       </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>1.84E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9435,8 +9492,14 @@
         <f t="shared" si="2"/>
         <v>1.6062099999999998E-3</v>
       </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>1.8144E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9507,8 +9570,14 @@
         <f t="shared" si="2"/>
         <v>1.7401299999999999E-3</v>
       </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>0.17888000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -9579,8 +9648,14 @@
         <f t="shared" si="2"/>
         <v>1.5873900000000002E-3</v>
       </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>1.7791999999999999E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9651,8 +9726,14 @@
         <f t="shared" si="2"/>
         <v>2.2579200000000001E-3</v>
       </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11">
+        <v>1.4048E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -9723,8 +9804,14 @@
         <f t="shared" si="2"/>
         <v>6.2351000000000004E-3</v>
       </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <v>1.3856E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -9795,8 +9882,14 @@
         <f t="shared" si="2"/>
         <v>2.1696300000000002E-2</v>
       </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>1.3856E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -9867,8 +9960,11 @@
         <f t="shared" si="2"/>
         <v>8.2067199999999993E-2</v>
       </c>
+      <c r="AA14">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -9939,8 +10035,11 @@
         <f t="shared" si="2"/>
         <v>0.32700499999999999</v>
       </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>28</v>
       </c>
@@ -10010,6 +10109,19 @@
       <c r="Y16">
         <f t="shared" si="2"/>
         <v>1.30392</v>
+      </c>
+      <c r="AA16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8903,10 +8903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,7 +8914,7 @@
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9075,41 +9075,8 @@
         <f>T3/1000</f>
         <v>9.9273599999999992E-4</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>1.7696E-2</v>
-      </c>
-      <c r="AC3">
-        <v>1.7760000000000001E-2</v>
-      </c>
-      <c r="AD3">
-        <v>1.7663999999999999E-2</v>
-      </c>
-      <c r="AE3">
-        <v>1.7919999999999998E-2</v>
-      </c>
-      <c r="AF3">
-        <v>1.7856E-2</v>
-      </c>
-      <c r="AG3">
-        <v>1.8239999999999999E-2</v>
-      </c>
-      <c r="AH3">
-        <v>1.7728000000000001E-2</v>
-      </c>
-      <c r="AI3">
-        <v>1.7824E-2</v>
-      </c>
-      <c r="AJ3">
-        <v>1.7824E-2</v>
-      </c>
-      <c r="AK3">
-        <v>1.7791999999999999E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9180,14 +9147,8 @@
         <f t="shared" ref="Y4:Y16" si="2">T4/1000</f>
         <v>1.0811500000000001E-3</v>
       </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1.7919999999999998E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9258,14 +9219,8 @@
         <f t="shared" si="2"/>
         <v>1.3781399999999999E-3</v>
       </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>1.7856E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9336,14 +9291,8 @@
         <f t="shared" si="2"/>
         <v>1.4769900000000001E-3</v>
       </c>
-      <c r="AA6">
-        <v>3</v>
-      </c>
-      <c r="AB6">
-        <v>1.7728000000000001E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9414,14 +9363,8 @@
         <f t="shared" si="2"/>
         <v>1.54038E-3</v>
       </c>
-      <c r="AA7">
-        <v>4</v>
-      </c>
-      <c r="AB7">
-        <v>1.84E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9492,14 +9435,8 @@
         <f t="shared" si="2"/>
         <v>1.6062099999999998E-3</v>
       </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>1.8144E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9570,14 +9507,8 @@
         <f t="shared" si="2"/>
         <v>1.7401299999999999E-3</v>
       </c>
-      <c r="AA9">
-        <v>6</v>
-      </c>
-      <c r="AB9">
-        <v>0.17888000000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -9648,14 +9579,8 @@
         <f t="shared" si="2"/>
         <v>1.5873900000000002E-3</v>
       </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10">
-        <v>1.7791999999999999E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9726,14 +9651,8 @@
         <f t="shared" si="2"/>
         <v>2.2579200000000001E-3</v>
       </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <v>1.4048E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -9804,14 +9723,8 @@
         <f t="shared" si="2"/>
         <v>6.2351000000000004E-3</v>
       </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>1.3856E-2</v>
-      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -9882,14 +9795,8 @@
         <f t="shared" si="2"/>
         <v>2.1696300000000002E-2</v>
       </c>
-      <c r="AA13">
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <v>1.3856E-2</v>
-      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -9960,11 +9867,8 @@
         <f t="shared" si="2"/>
         <v>8.2067199999999993E-2</v>
       </c>
-      <c r="AA14">
-        <v>11</v>
-      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -10035,11 +9939,8 @@
         <f t="shared" si="2"/>
         <v>0.32700499999999999</v>
       </c>
-      <c r="AA15">
-        <v>12</v>
-      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>28</v>
       </c>
@@ -10109,19 +10010,6 @@
       <c r="Y16">
         <f t="shared" si="2"/>
         <v>1.30392</v>
-      </c>
-      <c r="AA16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA18">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -824,8 +824,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="623520072"/>
-        <c:axId val="623520856"/>
+        <c:axId val="541147296"/>
+        <c:axId val="541146512"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -942,7 +942,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623520072"/>
+        <c:axId val="541147296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623520856"/>
+        <c:crossAx val="541146512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623520856"/>
+        <c:axId val="541146512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623520072"/>
+        <c:crossAx val="541147296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1878,11 +1878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630300928"/>
-        <c:axId val="630299752"/>
+        <c:axId val="541146904"/>
+        <c:axId val="541152000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630300928"/>
+        <c:axId val="541146904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630299752"/>
+        <c:crossAx val="541152000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2000,7 +2000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630299752"/>
+        <c:axId val="541152000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,7 +2093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630300928"/>
+        <c:crossAx val="541146904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2699,11 +2699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630289168"/>
-        <c:axId val="630291520"/>
+        <c:axId val="541144944"/>
+        <c:axId val="541145336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630289168"/>
+        <c:axId val="541144944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,7 +2813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630291520"/>
+        <c:crossAx val="541145336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2821,7 +2821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630291520"/>
+        <c:axId val="541145336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630289168"/>
+        <c:crossAx val="541144944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3435,11 +3435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630310728"/>
-        <c:axId val="630313080"/>
+        <c:axId val="541147688"/>
+        <c:axId val="541146120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630310728"/>
+        <c:axId val="541147688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630313080"/>
+        <c:crossAx val="541146120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3557,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630313080"/>
+        <c:axId val="541146120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,7 +3650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630310728"/>
+        <c:crossAx val="541147688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4163,11 +4163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630304064"/>
-        <c:axId val="630297400"/>
+        <c:axId val="543040496"/>
+        <c:axId val="543036576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630304064"/>
+        <c:axId val="543040496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630297400"/>
+        <c:crossAx val="543036576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630297400"/>
+        <c:axId val="543036576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,7 +4378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630304064"/>
+        <c:crossAx val="543040496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4824,11 +4824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630304456"/>
-        <c:axId val="630307200"/>
+        <c:axId val="543037752"/>
+        <c:axId val="543039712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630304456"/>
+        <c:axId val="543037752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4938,7 +4938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630307200"/>
+        <c:crossAx val="543039712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4946,7 +4946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630307200"/>
+        <c:axId val="543039712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630304456"/>
+        <c:crossAx val="543037752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8905,8 +8905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9132,7 +9132,7 @@
         <v>1.0811500000000001</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V16" si="0">Q4/1000</f>
+        <f t="shared" ref="V4:V15" si="0">Q4/1000</f>
         <v>1.6649999999999999E-6</v>
       </c>
       <c r="W4">
@@ -9140,11 +9140,11 @@
         <v>5.5500000000000009E-7</v>
       </c>
       <c r="X4">
-        <f>S4/1000</f>
+        <f t="shared" ref="X4:X16" si="2">S4/1000</f>
         <v>9.4051200000000001E-4</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y16" si="2">T4/1000</f>
+        <f t="shared" ref="Y4:Y16" si="3">T4/1000</f>
         <v>1.0811500000000001E-3</v>
       </c>
     </row>
@@ -9212,11 +9212,11 @@
         <v>1.387E-6</v>
       </c>
       <c r="X5">
-        <f>S5/1000</f>
+        <f t="shared" si="2"/>
         <v>1.0564499999999998E-3</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3781399999999999E-3</v>
       </c>
     </row>
@@ -9284,11 +9284,11 @@
         <v>5.5480000000000001E-6</v>
       </c>
       <c r="X6">
-        <f>S6/1000</f>
+        <f t="shared" si="2"/>
         <v>1.28349E-3</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4769900000000001E-3</v>
       </c>
     </row>
@@ -9356,11 +9356,11 @@
         <v>2.2192E-5</v>
       </c>
       <c r="X7">
-        <f>S7/1000</f>
+        <f t="shared" si="2"/>
         <v>1.34902E-3</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.54038E-3</v>
       </c>
     </row>
@@ -9428,11 +9428,11 @@
         <v>1.5534200000000002E-4</v>
       </c>
       <c r="X8">
-        <f>S8/1000</f>
+        <f t="shared" si="2"/>
         <v>1.58237E-3</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6062099999999998E-3</v>
       </c>
     </row>
@@ -9500,11 +9500,11 @@
         <v>3.80312E-4</v>
       </c>
       <c r="X9">
-        <f>S9/1000</f>
+        <f t="shared" si="2"/>
         <v>1.8815399999999999E-3</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7401299999999999E-3</v>
       </c>
     </row>
@@ -9572,11 +9572,11 @@
         <v>1.55287E-3</v>
       </c>
       <c r="X10">
-        <f>S10/1000</f>
+        <f t="shared" si="2"/>
         <v>1.5358700000000002E-3</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5873900000000002E-3</v>
       </c>
     </row>
@@ -9644,11 +9644,11 @@
         <v>6.31578E-3</v>
       </c>
       <c r="X11">
-        <f>S11/1000</f>
+        <f t="shared" si="2"/>
         <v>2.7366399999999998E-3</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2579200000000001E-3</v>
       </c>
     </row>
@@ -9716,11 +9716,11 @@
         <v>3.3744300000000005E-2</v>
       </c>
       <c r="X12">
-        <f>S12/1000</f>
+        <f t="shared" si="2"/>
         <v>6.4777300000000001E-3</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2351000000000004E-3</v>
       </c>
     </row>
@@ -9788,11 +9788,11 @@
         <v>9.7600599999999996E-2</v>
       </c>
       <c r="X13">
-        <f>S13/1000</f>
+        <f t="shared" si="2"/>
         <v>2.1801600000000001E-2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1696300000000002E-2</v>
       </c>
     </row>
@@ -9860,11 +9860,11 @@
         <v>0.39061200000000001</v>
       </c>
       <c r="X14">
-        <f>S14/1000</f>
+        <f t="shared" si="2"/>
         <v>8.2577799999999993E-2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2067199999999993E-2</v>
       </c>
     </row>
@@ -9932,11 +9932,11 @@
         <v>1.5644800000000001</v>
       </c>
       <c r="X15">
-        <f>S15/1000</f>
+        <f t="shared" si="2"/>
         <v>0.32906200000000002</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32700499999999999</v>
       </c>
     </row>
@@ -10004,11 +10004,11 @@
         <v>6.0942799999999995</v>
       </c>
       <c r="X16">
-        <f>S16/1000</f>
+        <f t="shared" si="2"/>
         <v>1.2935999999999999</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.30392</v>
       </c>
     </row>
